--- a/Data/PCR/Exp2200a_148a_125a_CT.xlsx
+++ b/Data/PCR/Exp2200a_148a_125a_CT.xlsx
@@ -1233,11 +1233,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="138644768"/>
-        <c:axId val="138645328"/>
+        <c:axId val="207289504"/>
+        <c:axId val="207666336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138644768"/>
+        <c:axId val="207289504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138645328"/>
+        <c:crossAx val="207666336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138645328"/>
+        <c:axId val="207666336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138644768"/>
+        <c:crossAx val="207289504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1665,11 +1665,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="138648128"/>
-        <c:axId val="138648688"/>
+        <c:axId val="208027008"/>
+        <c:axId val="207228672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138648128"/>
+        <c:axId val="208027008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138648688"/>
+        <c:crossAx val="207228672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1719,7 +1719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138648688"/>
+        <c:axId val="207228672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138648128"/>
+        <c:crossAx val="208027008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2037,11 +2037,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="138652608"/>
-        <c:axId val="138649808"/>
+        <c:axId val="248124064"/>
+        <c:axId val="248124624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138652608"/>
+        <c:axId val="248124064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138649808"/>
+        <c:crossAx val="248124624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2091,7 +2091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138649808"/>
+        <c:axId val="248124624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,7 +2142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138652608"/>
+        <c:crossAx val="248124064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2377,11 +2377,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="250291824"/>
-        <c:axId val="202024000"/>
+        <c:axId val="248126864"/>
+        <c:axId val="248127424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="250291824"/>
+        <c:axId val="248126864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202024000"/>
+        <c:crossAx val="248127424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,7 +2431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202024000"/>
+        <c:axId val="248127424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +2482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250291824"/>
+        <c:crossAx val="248126864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2717,11 +2717,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="258995248"/>
-        <c:axId val="259003648"/>
+        <c:axId val="248129664"/>
+        <c:axId val="248130224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="258995248"/>
+        <c:axId val="248129664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259003648"/>
+        <c:crossAx val="248130224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2771,7 +2771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259003648"/>
+        <c:axId val="248130224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258995248"/>
+        <c:crossAx val="248129664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3146,11 +3146,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="202252288"/>
-        <c:axId val="202253408"/>
+        <c:axId val="248361904"/>
+        <c:axId val="248362464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202252288"/>
+        <c:axId val="248361904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,7 +3193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202253408"/>
+        <c:crossAx val="248362464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3201,7 +3201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202253408"/>
+        <c:axId val="248362464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,7 +3252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202252288"/>
+        <c:crossAx val="248361904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3651,7 +3651,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3661,11 +3660,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="261602848"/>
-        <c:axId val="261601168"/>
+        <c:axId val="248365824"/>
+        <c:axId val="248366384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="261602848"/>
+        <c:axId val="248365824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3708,7 +3707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261601168"/>
+        <c:crossAx val="248366384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3716,7 +3715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261601168"/>
+        <c:axId val="248366384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,7 +3822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261602848"/>
+        <c:crossAx val="248365824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7825,16 +7824,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7860,16 +7859,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10010,7 +10009,7 @@
   <dimension ref="A2:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/PCR/Exp2200a_148a_125a_CT.xlsx
+++ b/Data/PCR/Exp2200a_148a_125a_CT.xlsx
@@ -1233,11 +1233,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="207289504"/>
-        <c:axId val="207666336"/>
+        <c:axId val="220061008"/>
+        <c:axId val="220059888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207289504"/>
+        <c:axId val="220061008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207666336"/>
+        <c:crossAx val="220059888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207666336"/>
+        <c:axId val="220059888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207289504"/>
+        <c:crossAx val="220061008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1665,11 +1665,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="208027008"/>
-        <c:axId val="207228672"/>
+        <c:axId val="218584912"/>
+        <c:axId val="218580992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208027008"/>
+        <c:axId val="218584912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207228672"/>
+        <c:crossAx val="218580992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1719,7 +1719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207228672"/>
+        <c:axId val="218580992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208027008"/>
+        <c:crossAx val="218584912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1895,7 +1895,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2037,11 +2036,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="248124064"/>
-        <c:axId val="248124624"/>
+        <c:axId val="218578192"/>
+        <c:axId val="218581552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248124064"/>
+        <c:axId val="218578192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248124624"/>
+        <c:crossAx val="218581552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2091,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248124624"/>
+        <c:axId val="218581552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,7 +2141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248124064"/>
+        <c:crossAx val="218578192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,7 +2234,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2377,11 +2375,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="248126864"/>
-        <c:axId val="248127424"/>
+        <c:axId val="220058208"/>
+        <c:axId val="220060448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248126864"/>
+        <c:axId val="220058208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248127424"/>
+        <c:crossAx val="220060448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,7 +2429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248127424"/>
+        <c:axId val="220060448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +2480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248126864"/>
+        <c:crossAx val="220058208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2575,7 +2573,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2717,11 +2714,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="248129664"/>
-        <c:axId val="248130224"/>
+        <c:axId val="258281648"/>
+        <c:axId val="258282768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248129664"/>
+        <c:axId val="258281648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248130224"/>
+        <c:crossAx val="258282768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2771,7 +2768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248130224"/>
+        <c:axId val="258282768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248129664"/>
+        <c:crossAx val="258281648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3146,11 +3143,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="248361904"/>
-        <c:axId val="248362464"/>
+        <c:axId val="215209872"/>
+        <c:axId val="215207632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248361904"/>
+        <c:axId val="215209872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,7 +3190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248362464"/>
+        <c:crossAx val="215207632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3201,7 +3198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248362464"/>
+        <c:axId val="215207632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,7 +3249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248361904"/>
+        <c:crossAx val="215209872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3660,11 +3657,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="248365824"/>
-        <c:axId val="248366384"/>
+        <c:axId val="129129456"/>
+        <c:axId val="129135056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248365824"/>
+        <c:axId val="129129456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3707,7 +3704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248366384"/>
+        <c:crossAx val="129135056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3715,7 +3712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248366384"/>
+        <c:axId val="129135056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,7 +3819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248365824"/>
+        <c:crossAx val="129129456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10009,7 +10006,7 @@
   <dimension ref="A2:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/PCR/Exp2200a_148a_125a_CT.xlsx
+++ b/Data/PCR/Exp2200a_148a_125a_CT.xlsx
@@ -1128,7 +1128,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1233,11 +1232,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="220061008"/>
-        <c:axId val="220059888"/>
+        <c:axId val="132621024"/>
+        <c:axId val="132618784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220061008"/>
+        <c:axId val="132621024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220059888"/>
+        <c:crossAx val="132618784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220059888"/>
+        <c:axId val="132618784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220061008"/>
+        <c:crossAx val="132621024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1352,7 +1351,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1464,7 +1462,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1665,11 +1662,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="218584912"/>
-        <c:axId val="218580992"/>
+        <c:axId val="209313280"/>
+        <c:axId val="209312720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218584912"/>
+        <c:axId val="209313280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218580992"/>
+        <c:crossAx val="209312720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1719,7 +1716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218580992"/>
+        <c:axId val="209312720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218584912"/>
+        <c:crossAx val="209313280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1784,7 +1781,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2036,11 +2032,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="218578192"/>
-        <c:axId val="218581552"/>
+        <c:axId val="209311040"/>
+        <c:axId val="209311600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218578192"/>
+        <c:axId val="209311040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218581552"/>
+        <c:crossAx val="209311600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2090,7 +2086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218581552"/>
+        <c:axId val="209311600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,7 +2137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218578192"/>
+        <c:crossAx val="209311040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2375,11 +2371,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="220058208"/>
-        <c:axId val="220060448"/>
+        <c:axId val="207903504"/>
+        <c:axId val="207904064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220058208"/>
+        <c:axId val="207903504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220060448"/>
+        <c:crossAx val="207904064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2429,7 +2425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220060448"/>
+        <c:axId val="207904064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220058208"/>
+        <c:crossAx val="207903504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2714,11 +2710,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="258281648"/>
-        <c:axId val="258282768"/>
+        <c:axId val="207906304"/>
+        <c:axId val="211626304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="258281648"/>
+        <c:axId val="207906304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258282768"/>
+        <c:crossAx val="211626304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2768,7 +2764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258282768"/>
+        <c:axId val="211626304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258281648"/>
+        <c:crossAx val="207906304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2908,7 +2904,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3143,11 +3138,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="215209872"/>
-        <c:axId val="215207632"/>
+        <c:axId val="211622944"/>
+        <c:axId val="132718800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215209872"/>
+        <c:axId val="211622944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,7 +3185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215207632"/>
+        <c:crossAx val="132718800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3198,7 +3193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215207632"/>
+        <c:axId val="132718800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3249,7 +3244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215209872"/>
+        <c:crossAx val="211622944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3263,7 +3258,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3657,11 +3651,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="129129456"/>
-        <c:axId val="129135056"/>
+        <c:axId val="207803200"/>
+        <c:axId val="207808800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129129456"/>
+        <c:axId val="207803200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,7 +3698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129135056"/>
+        <c:crossAx val="207808800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3712,7 +3706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129135056"/>
+        <c:axId val="207808800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129129456"/>
+        <c:crossAx val="207803200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10006,7 +10000,7 @@
   <dimension ref="A2:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/PCR/Exp2200a_148a_125a_CT.xlsx
+++ b/Data/PCR/Exp2200a_148a_125a_CT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Exp2200a_148a_125a_CT" sheetId="1" r:id="rId1"/>
@@ -1128,6 +1128,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1232,11 +1233,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="132621024"/>
-        <c:axId val="132618784"/>
+        <c:axId val="201686128"/>
+        <c:axId val="200543904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132621024"/>
+        <c:axId val="201686128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132618784"/>
+        <c:crossAx val="200543904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1286,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132618784"/>
+        <c:axId val="200543904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132621024"/>
+        <c:crossAx val="201686128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1351,6 +1352,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1462,6 +1464,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1662,11 +1665,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="209313280"/>
-        <c:axId val="209312720"/>
+        <c:axId val="201384720"/>
+        <c:axId val="201789472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209313280"/>
+        <c:axId val="201384720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209312720"/>
+        <c:crossAx val="201789472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1716,7 +1719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209312720"/>
+        <c:axId val="201789472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209313280"/>
+        <c:crossAx val="201384720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,6 +1784,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1891,6 +1895,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2032,11 +2037,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="209311040"/>
-        <c:axId val="209311600"/>
+        <c:axId val="264401616"/>
+        <c:axId val="264402176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209311040"/>
+        <c:axId val="264401616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209311600"/>
+        <c:crossAx val="264402176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2086,7 +2091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209311600"/>
+        <c:axId val="264402176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,7 +2142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209311040"/>
+        <c:crossAx val="264401616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2230,6 +2235,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2371,11 +2377,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="207903504"/>
-        <c:axId val="207904064"/>
+        <c:axId val="265373200"/>
+        <c:axId val="265373760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207903504"/>
+        <c:axId val="265373200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,7 +2423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207904064"/>
+        <c:crossAx val="265373760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2425,7 +2431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207904064"/>
+        <c:axId val="265373760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2476,7 +2482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207903504"/>
+        <c:crossAx val="265373200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2569,6 +2575,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2710,11 +2717,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="207906304"/>
-        <c:axId val="211626304"/>
+        <c:axId val="132497056"/>
+        <c:axId val="132497616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207906304"/>
+        <c:axId val="132497056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2756,7 +2763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211626304"/>
+        <c:crossAx val="132497616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2764,7 +2771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211626304"/>
+        <c:axId val="132497616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2815,7 +2822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207906304"/>
+        <c:crossAx val="132497056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2904,6 +2911,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3138,11 +3146,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="211622944"/>
-        <c:axId val="132718800"/>
+        <c:axId val="132500416"/>
+        <c:axId val="200704880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211622944"/>
+        <c:axId val="132500416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3185,7 +3193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132718800"/>
+        <c:crossAx val="200704880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3193,7 +3201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132718800"/>
+        <c:axId val="200704880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3244,7 +3252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211622944"/>
+        <c:crossAx val="132500416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3258,6 +3266,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3651,11 +3660,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="207803200"/>
-        <c:axId val="207808800"/>
+        <c:axId val="200708240"/>
+        <c:axId val="132430288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207803200"/>
+        <c:axId val="200708240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207808800"/>
+        <c:crossAx val="132430288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3706,7 +3715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207808800"/>
+        <c:axId val="132430288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,7 +3822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207803200"/>
+        <c:crossAx val="200708240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7725,16 +7734,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7815,16 +7824,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9426,10 +9435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9438,7 +9447,7 @@
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>137</v>
       </c>
@@ -9452,7 +9461,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -9468,8 +9477,24 @@
       <c r="E2">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>B2-B16</f>
+        <v>-2.6900000000000013</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:O6" si="0">C2-C16</f>
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0.49000000000000199</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>-0.12999999999999901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -9491,8 +9516,24 @@
       <c r="H3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="1">B3-B17</f>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>-2.4800000000000004</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>-27.27</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0.96999999999999886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -9517,8 +9558,20 @@
       <c r="J4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1.629999999999999</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -9553,8 +9606,24 @@
       <c r="K5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>-0.89000000000000057</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>-0.33000000000000007</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2.17</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>-4.1199999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -9586,8 +9655,20 @@
       <c r="K6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>-0.53999999999999915</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.3699999999999992</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>-0.96999999999999886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -9596,20 +9677,20 @@
         <v>20.389999999999997</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:E7" si="0">AVERAGE(C2:C6)</f>
+        <f t="shared" ref="C7:E7" si="2">AVERAGE(C2:C6)</f>
         <v>14.378000000000004</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17.145</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.635</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -9641,7 +9722,7 @@
         <v>2.9881802985155268</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -9670,8 +9751,24 @@
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f>B9-B16</f>
+        <v>-2.8299999999999983</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:N13" si="3">C9-C16</f>
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>-0.32000000000000028</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>-2.2999999999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -9689,8 +9786,24 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" ref="K10:K13" si="4">B10-B17</f>
+        <v>-1.8900000000000006</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>-1.4399999999999995</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>-24.799999999999997</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>-0.82000000000000028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -9709,8 +9822,20 @@
       <c r="H11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>-1.5800000000000018</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>-1.1099999999999994</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>-1.6499999999999986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -9725,6 +9850,9 @@
       </c>
       <c r="E12">
         <v>10.76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>155</v>
       </c>
       <c r="G12">
         <f>2^((B14-D14)-(B21-D21))</f>
@@ -9742,11 +9870,24 @@
         <f>-((C14-E14)-(C21-E21))</f>
         <v>-1.6114999999999995</v>
       </c>
-      <c r="K12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>-0.26000000000000156</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>-1.0500000000000007</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>-3.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -9758,6 +9899,9 @@
       </c>
       <c r="E13">
         <v>20.18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>154</v>
       </c>
       <c r="G13">
         <f>1/G12</f>
@@ -9775,11 +9919,20 @@
         <f>-((C15-E15)-(C22-E22))/2</f>
         <v>-0.68549676768149426</v>
       </c>
-      <c r="K13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>-2.3900000000000006</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>-1.370000000000001</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>-3.4299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -9788,19 +9941,19 @@
         <v>19.157999999999998</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:E14" si="1">AVERAGE(C9:C13)</f>
+        <f t="shared" ref="C14:E14" si="5">AVERAGE(C9:C13)</f>
         <v>12.59</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16.697500000000002</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12.12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>148</v>
       </c>
@@ -9832,7 +9985,7 @@
         <v>2.5864862738464831</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>141</v>
       </c>
@@ -9944,15 +10097,15 @@
         <v>20.948</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ref="C21:E21" si="2">AVERAGE(C16:C20)</f>
+        <f t="shared" ref="C21:E21" si="6">AVERAGE(C16:C20)</f>
         <v>13.556000000000001</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21.54</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14.6975</v>
       </c>
       <c r="G21" s="9"/>
@@ -9999,7 +10152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
